--- a/biology/Écologie/Benoît_Vincent/Benoît_Vincent.xlsx
+++ b/biology/Écologie/Benoît_Vincent/Benoît_Vincent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Vincent</t>
+          <t>Benoît_Vincent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benoît Vincent est un écrivain et naturaliste français, né en 1976 à Montélimar[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benoît Vincent est un écrivain et naturaliste français, né en 1976 à Montélimar.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Vincent</t>
+          <t>Benoît_Vincent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,17 +525,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Littérature
-Après avoir publié quelques textes poétiques dans des revues comme Voix d’Encre ou Po&amp;sie dans les années 90, il publie deux essais sur Maurice Blanchot (L’anonyme) et Pascal Quignard (Le revenant), à l’initiative de François Bon qui vient de lancer les éditions Publie.net.
-En 2015 paraît Farigoule Bastard ; le roman nommé au prix Wepler, et remporte le prix  Jean Follain de prose poétique de Saint-Lô[2].
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir publié quelques textes poétiques dans des revues comme Voix d’Encre ou Po&amp;sie dans les années 90, il publie deux essais sur Maurice Blanchot (L’anonyme) et Pascal Quignard (Le revenant), à l’initiative de François Bon qui vient de lancer les éditions Publie.net.
+En 2015 paraît Farigoule Bastard ; le roman nommé au prix Wepler, et remporte le prix  Jean Follain de prose poétique de Saint-Lô.
 GEnove, paru en 2017 (mais issu d’un site internet façonné « à la main » entre 2008 et 2012), est un palimpseste de textes très divers (poésies, chansons, fictions, éléments d’histoire et de géographie, nature et paysage, cartes postales, recettes de cuisine) sur de multiples aspects de la ville italienne de Gênes.
-Membre du collectif artistique du Général Instin[3], il contribue à l'écriture du récit collectif, Climax (avec Sereine Berlottier, Nicole Caligaris, Patrick Chatelier, et Laurence Werner-David ; Guénaël Boutouillet, Frédéric Laé, Marc Perrin, Alain Subilia ayant également participé aux premiers textes), et à la fiction de traduction de l’Anthologie de Spoon River d’Edgar Lee Masters, avec Patrick Chatelier (tous deux publiés au Nouvel Attila en 2015 et 2016)[4].
+Membre du collectif artistique du Général Instin, il contribue à l'écriture du récit collectif, Climax (avec Sereine Berlottier, Nicole Caligaris, Patrick Chatelier, et Laurence Werner-David ; Guénaël Boutouillet, Frédéric Laé, Marc Perrin, Alain Subilia ayant également participé aux premiers textes), et à la fiction de traduction de l’Anthologie de Spoon River d’Edgar Lee Masters, avec Patrick Chatelier (tous deux publiés au Nouvel Attila en 2015 et 2016).
 Toujours actif chez Publie, dont il est le directeur de la collection d'essais, il y publie des fictions critiques sur la contre-culture, et notamment le rock (Local héros, autour de la figure de Mark Knopfler, et Un de ces jours autour de Pink Floyd).
-En 2019, il publie un récit aux éditions des Inaperçus, L’Entreterre[5], puis Féroce en 2024 aux nouvelles éditions Bakélite, roman qualifié de "merterranéen" qui mêle précisément réalité et merveilleux, "un roman à la fois troubadour et contemporain, d’aventure et amoureux, végétal et aqueux".
+En 2019, il publie un récit aux éditions des Inaperçus, L’Entreterre, puis Féroce en 2024 aux nouvelles éditions Bakélite, roman qualifié de "merterranéen" qui mêle précisément réalité et merveilleux, "un roman à la fois troubadour et contemporain, d’aventure et amoureux, végétal et aqueux".
 Il coanime la revue Hors-Sol avec Parham Shahrjerdi, et fait partie du comité éditorial de la revue Amplitudes lancée par Henri-Pierre Jeudy. Il intervient ponctuellement à l’École de la nature et du paysage de Blois sur le thème Écrire &amp; la nature. Une grande partie de son travail passe par son site personnel Ambo(i)lati (de l'italien "de chaque côté"), lancé en 1999.
-Sciences naturelles
-Parallèlement naturaliste, (botaniste phytosociologue et malacologue), il travaille d'abord dans le champ associatif de l'éducation à l'environnement pour finalement devenir naturaliste indépendant. Il associe à la pratique du terrain (inventaires de la flore, des habitats et des escargots) une réflexion plus personnelle, théorique et critique, sur le devenir de l'écologie, à travers l'écocentrisme ou la protection de la nature.
-Ses travaux sur les communautés de mollusques le conduisent d'une part à proposer une nouvelle approche du concept de cénose, et d'autre part à se plonger dans l'histoire de l'écologie où il constate que l'écologie anglo-saxonne, notamment via le concept d'écosystème, a durablement mis à mal l'écologie européenne d'inspiration biogéographie. Il cherche à réhabiliter la cénologie comme domaine de recherche à part entière.
 </t>
         </is>
       </c>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Vincent</t>
+          <t>Benoît_Vincent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,16 +563,56 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sciences naturelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parallèlement naturaliste, (botaniste phytosociologue et malacologue), il travaille d'abord dans le champ associatif de l'éducation à l'environnement pour finalement devenir naturaliste indépendant. Il associe à la pratique du terrain (inventaires de la flore, des habitats et des escargots) une réflexion plus personnelle, théorique et critique, sur le devenir de l'écologie, à travers l'écocentrisme ou la protection de la nature.
+Ses travaux sur les communautés de mollusques le conduisent d'une part à proposer une nouvelle approche du concept de cénose, et d'autre part à se plonger dans l'histoire de l'écologie où il constate que l'écologie anglo-saxonne, notamment via le concept d'écosystème, a durablement mis à mal l'écologie européenne d'inspiration biogéographie. Il cherche à réhabiliter la cénologie comme domaine de recherche à part entière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Benoît_Vincent</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Vincent</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Analyse de l’œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benoît Vincent travaille essentiellement sur l’espace, et en particulier la manière dont on l'habite[6], lequel est également le lien entre littérature et écologie, dont les pratiques sont poreuses l'une à l'autre.
-Farigoule Bastard apparaît ainsi non tant comme l’aventure d’un personnage typiquement provençal que la mise en mot de ce paysage à travers, selon La Quinzaine littéraire, le « déploiement d’une langue qui, emportée par sa propre violence, s’affranchira de tout cadre, et d’abord du sien, de celui qui l’a rendue possible »[7] et selon le critique Guénaël Boutouillet, comme un « long poème autant que promenade entêtée, fantaisie pastorale dissipant son et ses personnages dans leur sinueux mouvement, épaissit son mystère en l’énonçant, sans cesser de plaire, d’étrangement (d’estrangement) plaire à qui le lit qui l’écoute »[8].
-Les différents personnages de GEnove ne sont jamais nommés ni identifiés, mais ne sont que des avatars d’une même identité, la ville elle-même. Le territoire, et même le terroir (ou la région naturelle) prend ainsi place à travers des fictions critiques tournées vers le dehors. Pour le quotidien l'Humanité, l'auteur « ourdit un canevas lointainement pérecquien, propose des parcours échappant à la succession des pages, à la logique des thèmes, et même au hasard de la lecture par fragments »[9]. Dans Livres hebdo, Sean J. Rose écrit : « Plus qu’un livre, c’est une rêverie vagabonde »[10].
-Il construit également un versant critique, avec La Littérature inquiète, une suite d'essais qui, à partir des œuvres de Maurice Blanchot et Pascal Quignard (dans la filiation de Stéphane Mallarmé, Paul Valery, Jean Paulhan, et jusque dans des actualisations contemporaines), explore les parages de ce qu'il appelle l'inquiétude en littérature, ou l'articulation entre écriture et lecture, par le biais de correspondances appelées symptômes[11].
-« Ces fictions sont inquiétantes, autant qu'est inquiète la littérature à laquelle il consacre depuis des années un travail d'étude fouillé, au plus près du contemporain : de Nicole Caligaris à Antoine Volodine, en passant par Pierre Senges, la « littérature inquiète », telle qu'il l'envisage, est avant tout matière à romans emplis d'univers inventés, d'imaginaire — jusqu'au fantastique, souvent[12]. »
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benoît Vincent travaille essentiellement sur l’espace, et en particulier la manière dont on l'habite, lequel est également le lien entre littérature et écologie, dont les pratiques sont poreuses l'une à l'autre.
+Farigoule Bastard apparaît ainsi non tant comme l’aventure d’un personnage typiquement provençal que la mise en mot de ce paysage à travers, selon La Quinzaine littéraire, le « déploiement d’une langue qui, emportée par sa propre violence, s’affranchira de tout cadre, et d’abord du sien, de celui qui l’a rendue possible » et selon le critique Guénaël Boutouillet, comme un « long poème autant que promenade entêtée, fantaisie pastorale dissipant son et ses personnages dans leur sinueux mouvement, épaissit son mystère en l’énonçant, sans cesser de plaire, d’étrangement (d’estrangement) plaire à qui le lit qui l’écoute ».
+Les différents personnages de GEnove ne sont jamais nommés ni identifiés, mais ne sont que des avatars d’une même identité, la ville elle-même. Le territoire, et même le terroir (ou la région naturelle) prend ainsi place à travers des fictions critiques tournées vers le dehors. Pour le quotidien l'Humanité, l'auteur « ourdit un canevas lointainement pérecquien, propose des parcours échappant à la succession des pages, à la logique des thèmes, et même au hasard de la lecture par fragments ». Dans Livres hebdo, Sean J. Rose écrit : « Plus qu’un livre, c’est une rêverie vagabonde ».
+Il construit également un versant critique, avec La Littérature inquiète, une suite d'essais qui, à partir des œuvres de Maurice Blanchot et Pascal Quignard (dans la filiation de Stéphane Mallarmé, Paul Valery, Jean Paulhan, et jusque dans des actualisations contemporaines), explore les parages de ce qu'il appelle l'inquiétude en littérature, ou l'articulation entre écriture et lecture, par le biais de correspondances appelées symptômes.
+« Ces fictions sont inquiétantes, autant qu'est inquiète la littérature à laquelle il consacre depuis des années un travail d'étude fouillé, au plus près du contemporain : de Nicole Caligaris à Antoine Volodine, en passant par Pierre Senges, la « littérature inquiète », telle qu'il l'envisage, est avant tout matière à romans emplis d'univers inventés, d'imaginaire — jusqu'au fantastique, souvent. »
 </t>
         </is>
       </c>
